--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1577,28 +1577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.8546121316264</v>
+        <v>125.5983291947672</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.466706177441</v>
+        <v>171.8491750114249</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.7744450966915</v>
+        <v>155.4481309402143</v>
       </c>
       <c r="AD2" t="n">
-        <v>104854.6121316264</v>
+        <v>125598.3291947672</v>
       </c>
       <c r="AE2" t="n">
-        <v>143466.706177441</v>
+        <v>171849.1750114249</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.050262123644322e-06</v>
+        <v>8.537718694841774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>129774.4450966915</v>
+        <v>155448.1309402143</v>
       </c>
     </row>
     <row r="3">
@@ -1683,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.47456107834451</v>
+        <v>82.88913479147622</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.1628918193294</v>
+        <v>113.4125710321944</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.69892460011008</v>
+        <v>102.5886344284541</v>
       </c>
       <c r="AD3" t="n">
-        <v>72474.5610783445</v>
+        <v>82889.13479147623</v>
       </c>
       <c r="AE3" t="n">
-        <v>99162.89181932941</v>
+        <v>113412.5710321944</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.517976171890587e-06</v>
+        <v>1.101896211579743e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>89698.92460011007</v>
+        <v>102588.6344284541</v>
       </c>
     </row>
   </sheetData>
@@ -1980,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.79008941276267</v>
+        <v>92.80063289989045</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.59461160660781</v>
+        <v>126.9739200085559</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.08944165681329</v>
+        <v>114.8557072919888</v>
       </c>
       <c r="AD2" t="n">
-        <v>72790.08941276267</v>
+        <v>92800.63289989045</v>
       </c>
       <c r="AE2" t="n">
-        <v>99594.61160660781</v>
+        <v>126973.9200085559</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.319419353320559e-06</v>
+        <v>1.094391360859518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.315972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>90089.44165681329</v>
+        <v>114855.7072919888</v>
       </c>
     </row>
     <row r="3">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.27885328717286</v>
+        <v>80.36951063958391</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.15862755165875</v>
+        <v>109.9651101096046</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.98138309763354</v>
+        <v>99.47019433777339</v>
       </c>
       <c r="AD3" t="n">
-        <v>70278.85328717287</v>
+        <v>80369.51063958391</v>
       </c>
       <c r="AE3" t="n">
-        <v>96158.62755165875</v>
+        <v>109965.1101096046</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.566292799965534e-06</v>
+        <v>1.13714468234813e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.192274305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>86981.38309763354</v>
+        <v>99470.1943377734</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.21512696432052</v>
+        <v>87.44585818975101</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.70319026843956</v>
+        <v>119.6472810141592</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.66485070600528</v>
+        <v>108.2283124402127</v>
       </c>
       <c r="AD2" t="n">
-        <v>69215.12696432052</v>
+        <v>87445.858189751</v>
       </c>
       <c r="AE2" t="n">
-        <v>94703.19026843956</v>
+        <v>119647.2810141592</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.013239879229652e-06</v>
+        <v>1.137834383890567e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>85664.85070600528</v>
+        <v>108228.3124402127</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.22510107274871</v>
+        <v>87.04777043010117</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.34859316673189</v>
+        <v>119.1025997790142</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.4395344504952</v>
+        <v>107.7356148176847</v>
       </c>
       <c r="AD2" t="n">
-        <v>68225.10107274872</v>
+        <v>87047.77043010117</v>
       </c>
       <c r="AE2" t="n">
-        <v>93348.59316673189</v>
+        <v>119102.5997790142</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.395848726811381e-06</v>
+        <v>1.165184736320971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>84439.53445049521</v>
+        <v>107735.6148176847</v>
       </c>
     </row>
   </sheetData>
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.34076301553768</v>
+        <v>98.86081160365148</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.2940204590146</v>
+        <v>135.2657238672529</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.6722753485735</v>
+        <v>122.3561530280343</v>
       </c>
       <c r="AD2" t="n">
-        <v>81340.76301553767</v>
+        <v>98860.81160365148</v>
       </c>
       <c r="AE2" t="n">
-        <v>111294.0204590146</v>
+        <v>135265.7238672529</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.478394523101993e-06</v>
+        <v>1.073588812400248e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>100672.2753485735</v>
+        <v>122356.1530280343</v>
       </c>
     </row>
   </sheetData>
@@ -3274,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.00527278488676</v>
+        <v>97.18609356432646</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.362011457111</v>
+        <v>132.9743007625041</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.30640896018284</v>
+        <v>120.2834201283694</v>
       </c>
       <c r="AD2" t="n">
-        <v>77005.27278488675</v>
+        <v>97186.09356432645</v>
       </c>
       <c r="AE2" t="n">
-        <v>105362.011457111</v>
+        <v>132974.3007625041</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.014167933231136e-06</v>
+        <v>1.034726290660616e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>95306.40896018283</v>
+        <v>120283.4201283694</v>
       </c>
     </row>
     <row r="3">
@@ -3380,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.78319865354699</v>
+        <v>80.958994652114</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.8486951320787</v>
+        <v>110.771668141747</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.60559159669437</v>
+        <v>100.1997756033397</v>
       </c>
       <c r="AD3" t="n">
-        <v>70783.19865354699</v>
+        <v>80958.99465211399</v>
       </c>
       <c r="AE3" t="n">
-        <v>96848.6951320787</v>
+        <v>110771.668141747</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.562537682554429e-06</v>
+        <v>1.129072275496284e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.166232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>87605.59159669437</v>
+        <v>100199.7756033397</v>
       </c>
     </row>
   </sheetData>
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.84175243212142</v>
+        <v>110.6088380263133</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.0842286315344</v>
+        <v>151.3398919050777</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.005312776209</v>
+        <v>136.8962250285707</v>
       </c>
       <c r="AD2" t="n">
-        <v>84841.75243212143</v>
+        <v>110608.8380263133</v>
       </c>
       <c r="AE2" t="n">
-        <v>116084.2286315344</v>
+        <v>151339.8919050777</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.049769472747492e-06</v>
+        <v>1.012307277301213e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>105005.312776209</v>
+        <v>136896.2250285707</v>
       </c>
     </row>
   </sheetData>
@@ -3974,28 +3974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.89942744114529</v>
+        <v>88.35733872918273</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.27123625315144</v>
+        <v>120.8944088998925</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.27412177568486</v>
+        <v>109.3564161908869</v>
       </c>
       <c r="AD2" t="n">
-        <v>68899.42744114529</v>
+        <v>88357.33872918272</v>
       </c>
       <c r="AE2" t="n">
-        <v>94271.23625315144</v>
+        <v>120894.4088998925</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.533052112673884e-06</v>
+        <v>1.157052074239464e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.305121527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>85274.12177568486</v>
+        <v>109356.4161908869</v>
       </c>
     </row>
   </sheetData>
@@ -4271,28 +4271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.59524838555316</v>
+        <v>80.59752958792971</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.59153328362903</v>
+        <v>110.2770956942172</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.37297291413174</v>
+        <v>99.75240445606521</v>
       </c>
       <c r="AD2" t="n">
-        <v>70595.24838555316</v>
+        <v>80597.52958792972</v>
       </c>
       <c r="AE2" t="n">
-        <v>96591.53328362903</v>
+        <v>110277.0956942172</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.474216945612447e-06</v>
+        <v>1.129046902967557e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87372.97291413174</v>
+        <v>99752.40445606521</v>
       </c>
     </row>
     <row r="3">
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.19448025165411</v>
+        <v>80.19676145403066</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.0431846421864</v>
+        <v>109.7287470527746</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.87695789741608</v>
+        <v>99.25638943934953</v>
       </c>
       <c r="AD3" t="n">
-        <v>70194.48025165411</v>
+        <v>80196.76145403067</v>
       </c>
       <c r="AE3" t="n">
-        <v>96043.1846421864</v>
+        <v>109728.7470527746</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.525796173989389e-06</v>
+        <v>1.138041870010778e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>86876.95789741608</v>
+        <v>99256.38943934953</v>
       </c>
     </row>
   </sheetData>
@@ -4674,28 +4674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.39347641669427</v>
+        <v>109.0683270643927</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.943854078228</v>
+        <v>149.2320968444319</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4011423907989</v>
+        <v>134.9895949702033</v>
       </c>
       <c r="AD2" t="n">
-        <v>88393.47641669428</v>
+        <v>109068.3270643927</v>
       </c>
       <c r="AE2" t="n">
-        <v>120943.854078228</v>
+        <v>149232.0968444319</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.335608690498263e-06</v>
+        <v>9.070181149024539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>109401.1423907989</v>
+        <v>134989.5949702033</v>
       </c>
     </row>
     <row r="3">
@@ -4780,28 +4780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.090549726609</v>
+        <v>82.42806455900924</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.63747054649997</v>
+        <v>112.7817143991503</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.22364879612593</v>
+        <v>102.0179858670547</v>
       </c>
       <c r="AD3" t="n">
-        <v>72090.549726609</v>
+        <v>82428.06455900925</v>
       </c>
       <c r="AE3" t="n">
-        <v>98637.47054649997</v>
+        <v>112781.7143991503</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.514178338628749e-06</v>
+        <v>1.107367143951796e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.135850694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>89223.64879612593</v>
+        <v>102017.9858670547</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.61203609359384</v>
+        <v>87.65773661530935</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.8780147326203</v>
+        <v>119.9371824234245</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.91842876518321</v>
+        <v>108.4905460658569</v>
       </c>
       <c r="AD2" t="n">
-        <v>68612.03609359384</v>
+        <v>87657.73661530935</v>
       </c>
       <c r="AE2" t="n">
-        <v>93878.0147326203</v>
+        <v>119937.1824234245</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.430547867527158e-06</v>
+        <v>1.159579952962887e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.435329861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>84918.42876518321</v>
+        <v>108490.5460658569</v>
       </c>
     </row>
   </sheetData>
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.77524613274325</v>
+        <v>87.27868713169551</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.10132590850317</v>
+        <v>119.4185501974612</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.12042743585911</v>
+        <v>108.0214113716345</v>
       </c>
       <c r="AD2" t="n">
-        <v>68775.24613274325</v>
+        <v>87278.68713169551</v>
       </c>
       <c r="AE2" t="n">
-        <v>94101.32590850318</v>
+        <v>119418.5501974612</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.163650175344799e-06</v>
+        <v>1.149940106117595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.734809027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>85120.42743585911</v>
+        <v>108021.4113716345</v>
       </c>
     </row>
   </sheetData>
@@ -8588,28 +8588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.55620471956948</v>
+        <v>97.40459866653406</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.8523090693165</v>
+        <v>133.2732690831092</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.46359746694402</v>
+        <v>120.5538553320607</v>
       </c>
       <c r="AD2" t="n">
-        <v>79556.20471956948</v>
+        <v>97404.59866653406</v>
       </c>
       <c r="AE2" t="n">
-        <v>108852.3090693165</v>
+        <v>133273.2690831092</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.780496549003353e-06</v>
+        <v>1.111610922540011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.118923611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>98463.59746694402</v>
+        <v>120553.8553320607</v>
       </c>
     </row>
   </sheetData>
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0799226833356</v>
+        <v>125.2861229336432</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.9337654298609</v>
+        <v>171.422000631387</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.8649990450185</v>
+        <v>155.0617254834641</v>
       </c>
       <c r="AD2" t="n">
-        <v>100079.9226833356</v>
+        <v>125286.1229336432</v>
       </c>
       <c r="AE2" t="n">
-        <v>136933.7654298609</v>
+        <v>171422.0006313871</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.42508712008337e-06</v>
+        <v>9.12718169085497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.774739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123864.9990450185</v>
+        <v>155061.7254834641</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.43806208241583</v>
+        <v>79.34837756115414</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.00821993222067</v>
+        <v>108.5679507824857</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.94076876678704</v>
+        <v>98.20637793590882</v>
       </c>
       <c r="AD2" t="n">
-        <v>69438.06208241582</v>
+        <v>79348.37756115414</v>
       </c>
       <c r="AE2" t="n">
-        <v>95008.21993222067</v>
+        <v>108567.9507824857</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.535204618149263e-06</v>
+        <v>1.148209671480215e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.270399305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>85940.76876678705</v>
+        <v>98206.37793590882</v>
       </c>
     </row>
     <row r="3">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.26581440340787</v>
+        <v>79.17612988214618</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.77254305877082</v>
+        <v>108.3322739090358</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.72758456336462</v>
+        <v>97.99319373248639</v>
       </c>
       <c r="AD3" t="n">
-        <v>69265.81440340787</v>
+        <v>79176.12988214618</v>
       </c>
       <c r="AE3" t="n">
-        <v>94772.54305877083</v>
+        <v>108332.2739090358</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.570065345283734e-06</v>
+        <v>1.154334563719927e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.253038194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>85727.58456336461</v>
+        <v>97993.19373248638</v>
       </c>
     </row>
   </sheetData>
@@ -9585,28 +9585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.29145549976828</v>
+        <v>102.8072690445991</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5947998575305</v>
+        <v>140.6654410433693</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8489101869509</v>
+        <v>127.2405287754145</v>
       </c>
       <c r="AD2" t="n">
-        <v>82291.45549976827</v>
+        <v>102807.2690445991</v>
       </c>
       <c r="AE2" t="n">
-        <v>112594.7998575305</v>
+        <v>140665.4410433693</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.67596747514461e-06</v>
+        <v>9.70527183908495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>101848.9101869509</v>
+        <v>127240.5287754145</v>
       </c>
     </row>
     <row r="3">
@@ -9691,28 +9691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.45323859612475</v>
+        <v>81.71123487709121</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.76547334158916</v>
+        <v>111.8009164040569</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.43487378059575</v>
+        <v>101.1307938560541</v>
       </c>
       <c r="AD3" t="n">
-        <v>71453.23859612475</v>
+        <v>81711.23487709122</v>
       </c>
       <c r="AE3" t="n">
-        <v>97765.47334158915</v>
+        <v>111800.9164040569</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.536192596141482e-06</v>
+        <v>1.117616093044143e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88434.87378059575</v>
+        <v>101130.7938560541</v>
       </c>
     </row>
   </sheetData>
@@ -9988,28 +9988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.0015263959876</v>
+        <v>163.5532402629761</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.242067794368</v>
+        <v>223.7807587874218</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.1354564119458</v>
+        <v>202.4234372470821</v>
       </c>
       <c r="AD2" t="n">
-        <v>131001.5263959876</v>
+        <v>163553.2402629761</v>
       </c>
       <c r="AE2" t="n">
-        <v>179242.067794368</v>
+        <v>223780.7587874218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.486115695527619e-06</v>
+        <v>7.472351607152451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162135.4564119458</v>
+        <v>202423.4372470821</v>
       </c>
     </row>
   </sheetData>
@@ -10285,28 +10285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.18238662884198</v>
+        <v>86.93887457900051</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.29014938015045</v>
+        <v>118.9536036713924</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.38666845687872</v>
+        <v>107.600838689457</v>
       </c>
       <c r="AD2" t="n">
-        <v>68182.38662884198</v>
+        <v>86938.87457900051</v>
       </c>
       <c r="AE2" t="n">
-        <v>93290.14938015045</v>
+        <v>118953.6036713924</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.316068332049907e-06</v>
+        <v>1.163692978890897e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.591579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>84386.66845687872</v>
+        <v>107600.838689457</v>
       </c>
     </row>
   </sheetData>
@@ -10582,28 +10582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.7621227642842</v>
+        <v>88.01905904549649</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.08336993681534</v>
+        <v>120.4315597128268</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.10418515690779</v>
+        <v>108.9377406806217</v>
       </c>
       <c r="AD2" t="n">
-        <v>68762.1227642842</v>
+        <v>88019.05904549648</v>
       </c>
       <c r="AE2" t="n">
-        <v>94083.36993681535</v>
+        <v>120431.5597128268</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.484314958452181e-06</v>
+        <v>1.158375545911845e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.368055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>85104.18515690778</v>
+        <v>108937.7406806217</v>
       </c>
     </row>
   </sheetData>
